--- a/IP_Vlan_Enterprise.xlsx
+++ b/IP_Vlan_Enterprise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A78C88D3-8724-4E9D-88C3-BAC46794EE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2F05E8-858C-448D-9910-B1DF4F3E55D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DA9A1463-7F65-4E9E-B901-EAAB183ABE56}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{DA9A1463-7F65-4E9E-B901-EAAB183ABE56}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>Hoofdbranche</t>
   </si>
@@ -119,18 +119,6 @@
     <t>10.1.20.0/27</t>
   </si>
   <si>
-    <t>10.1.30.0/26</t>
-  </si>
-  <si>
-    <t>10.1.40.0/26</t>
-  </si>
-  <si>
-    <t>10.1.50.0/26</t>
-  </si>
-  <si>
-    <t>10.1.60.0/25</t>
-  </si>
-  <si>
     <t>DHCP</t>
   </si>
   <si>
@@ -144,6 +132,27 @@
   </si>
   <si>
     <t>R&amp;E</t>
+  </si>
+  <si>
+    <t>10.1.18.0/25</t>
+  </si>
+  <si>
+    <t>Datacenter</t>
+  </si>
+  <si>
+    <t>10.1.30.0/24</t>
+  </si>
+  <si>
+    <t>10.1.40.0/24</t>
+  </si>
+  <si>
+    <t>10.1.50.0/24</t>
+  </si>
+  <si>
+    <t>10.1.60.0/24</t>
+  </si>
+  <si>
+    <t>10.1.20.0/24</t>
   </si>
 </sst>
 </file>
@@ -506,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA6A49-74F3-4982-9AAB-7ABE15EB4179}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -555,7 +564,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -572,7 +581,7 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -589,7 +598,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -606,7 +615,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -623,7 +632,7 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -640,7 +649,7 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -657,7 +666,7 @@
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -674,7 +683,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -691,7 +700,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -705,10 +714,10 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -722,10 +731,10 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -739,10 +748,10 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
         <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -756,15 +765,15 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -781,18 +790,24 @@
         <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>18</v>
       </c>
       <c r="C18">
         <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -800,7 +815,16 @@
         <v>12</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -808,7 +832,16 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -816,7 +849,16 @@
         <v>14</v>
       </c>
       <c r="B21">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -824,7 +866,16 @@
         <v>15</v>
       </c>
       <c r="B22">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -832,7 +883,38 @@
         <v>16</v>
       </c>
       <c r="B23">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/IP_Vlan_Enterprise.xlsx
+++ b/IP_Vlan_Enterprise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2F05E8-858C-448D-9910-B1DF4F3E55D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF6E33D-682E-4869-8FAC-C090E7229B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{DA9A1463-7F65-4E9E-B901-EAAB183ABE56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DA9A1463-7F65-4E9E-B901-EAAB183ABE56}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t>Hoofdbranche</t>
   </si>
@@ -134,9 +134,6 @@
     <t>R&amp;E</t>
   </si>
   <si>
-    <t>10.1.18.0/25</t>
-  </si>
-  <si>
     <t>Datacenter</t>
   </si>
   <si>
@@ -153,6 +150,18 @@
   </si>
   <si>
     <t>10.1.20.0/24</t>
+  </si>
+  <si>
+    <t>Fileserver</t>
+  </si>
+  <si>
+    <t>10.1.100.0/25</t>
+  </si>
+  <si>
+    <t>10.1.200.0/</t>
+  </si>
+  <si>
+    <t>10.1.170.0/24</t>
   </si>
 </sst>
 </file>
@@ -212,10 +221,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA6A49-74F3-4982-9AAB-7ABE15EB4179}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,7 +719,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
@@ -731,7 +736,7 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
@@ -748,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
@@ -765,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
@@ -798,13 +803,13 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
@@ -812,33 +817,33 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
@@ -846,16 +851,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -863,16 +868,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
@@ -880,41 +885,126 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>33</v>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>200</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -933,12 +1023,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a5438d8a-e25f-4b06-a016-058b88377401" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1125,17 +1214,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a5438d8a-e25f-4b06-a016-058b88377401" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1A42AD5-648E-4956-A6F8-DA3EEA3B2A3B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50B20762-B163-4326-8B6A-1AA0CE258EC2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a5438d8a-e25f-4b06-a016-058b88377401"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ace11a39-4f1a-4f3d-bc63-b29ae5e0681c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1160,18 +1259,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50B20762-B163-4326-8B6A-1AA0CE258EC2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1A42AD5-648E-4956-A6F8-DA3EEA3B2A3B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a5438d8a-e25f-4b06-a016-058b88377401"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ace11a39-4f1a-4f3d-bc63-b29ae5e0681c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/IP_Vlan_Enterprise.xlsx
+++ b/IP_Vlan_Enterprise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF6E33D-682E-4869-8FAC-C090E7229B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B5097F-7BDA-4C0D-98C2-F120367C9B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DA9A1463-7F65-4E9E-B901-EAAB183ABE56}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>Hoofdbranche</t>
   </si>
@@ -116,9 +116,6 @@
     <t>10.1.17.0/24</t>
   </si>
   <si>
-    <t>10.1.20.0/27</t>
-  </si>
-  <si>
     <t>DHCP</t>
   </si>
   <si>
@@ -155,13 +152,46 @@
     <t>Fileserver</t>
   </si>
   <si>
-    <t>10.1.100.0/25</t>
-  </si>
-  <si>
-    <t>10.1.200.0/</t>
-  </si>
-  <si>
-    <t>10.1.170.0/24</t>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>10.2.100.0/25</t>
+  </si>
+  <si>
+    <t>10.2.170.0/24</t>
+  </si>
+  <si>
+    <t>10.2.30.0/24</t>
+  </si>
+  <si>
+    <t>10.2.20.0/24</t>
+  </si>
+  <si>
+    <t>10.2.40.0/24</t>
+  </si>
+  <si>
+    <t>10.2.50.0/24</t>
+  </si>
+  <si>
+    <t>10.2.60.0/24</t>
+  </si>
+  <si>
+    <t>10.1.18.0/24</t>
+  </si>
+  <si>
+    <t>10.2.180.0/24</t>
+  </si>
+  <si>
+    <t>10.3.50.0/24</t>
+  </si>
+  <si>
+    <t>10.3.40.0/24</t>
+  </si>
+  <si>
+    <t>10.3.30.0/24</t>
+  </si>
+  <si>
+    <t>10.3.200.0/24</t>
   </si>
 </sst>
 </file>
@@ -520,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA6A49-74F3-4982-9AAB-7ABE15EB4179}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -569,7 +599,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -586,7 +616,7 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -603,7 +633,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -620,7 +650,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -637,7 +667,7 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -654,7 +684,7 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -671,7 +701,7 @@
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -688,323 +718,348 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
+        <v>40</v>
+      </c>
+      <c r="C14">
         <v>50</v>
       </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18">
-        <v>100</v>
-      </c>
-      <c r="C18">
-        <v>80</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
+      <c r="E18" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B19">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="C19">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B21">
-        <v>30</v>
-      </c>
-      <c r="C21">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>130</v>
+      </c>
+      <c r="C23">
         <v>15</v>
       </c>
-      <c r="B23">
-        <v>50</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>140</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>150</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B24">
-        <v>60</v>
-      </c>
-      <c r="C24">
+      <c r="B26">
+        <v>160</v>
+      </c>
+      <c r="C26">
         <v>3</v>
       </c>
-      <c r="D24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27">
-        <v>200</v>
-      </c>
-      <c r="C27">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28">
-        <v>30</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" t="s">
-        <v>29</v>
+      <c r="E28" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>40</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>230</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>240</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>15</v>
       </c>
-      <c r="B30">
-        <v>50</v>
-      </c>
-      <c r="C30">
+      <c r="B32">
+        <v>250</v>
+      </c>
+      <c r="C32">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" t="s">
-        <v>29</v>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1023,14 +1078,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a5438d8a-e25f-4b06-a016-058b88377401" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1162626062FFC4EA201A1E377B53F87" ma:contentTypeVersion="7" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="2a3662e17ae22d0b90c8b1b600c1d3af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a5438d8a-e25f-4b06-a016-058b88377401" xmlns:ns4="ace11a39-4f1a-4f3d-bc63-b29ae5e0681c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="864f4d4cc55e00df174a567dcac6dc96" ns3:_="" ns4:_="">
     <xsd:import namespace="a5438d8a-e25f-4b06-a016-058b88377401"/>
@@ -1213,6 +1260,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a5438d8a-e25f-4b06-a016-058b88377401" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1223,23 +1278,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50B20762-B163-4326-8B6A-1AA0CE258EC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a5438d8a-e25f-4b06-a016-058b88377401"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ace11a39-4f1a-4f3d-bc63-b29ae5e0681c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{413CC362-E640-4F5E-B8DE-CD1495C471A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1258,6 +1296,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50B20762-B163-4326-8B6A-1AA0CE258EC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a5438d8a-e25f-4b06-a016-058b88377401"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ace11a39-4f1a-4f3d-bc63-b29ae5e0681c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1A42AD5-648E-4956-A6F8-DA3EEA3B2A3B}">
   <ds:schemaRefs>

--- a/IP_Vlan_Enterprise.xlsx
+++ b/IP_Vlan_Enterprise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B5097F-7BDA-4C0D-98C2-F120367C9B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F14A97-8DD8-487E-842B-575BD354DF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DA9A1463-7F65-4E9E-B901-EAAB183ABE56}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="6216" xr2:uid="{DA9A1463-7F65-4E9E-B901-EAAB183ABE56}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA6A49-74F3-4982-9AAB-7ABE15EB4179}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,6 +1078,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a5438d8a-e25f-4b06-a016-058b88377401" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1162626062FFC4EA201A1E377B53F87" ma:contentTypeVersion="7" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="2a3662e17ae22d0b90c8b1b600c1d3af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a5438d8a-e25f-4b06-a016-058b88377401" xmlns:ns4="ace11a39-4f1a-4f3d-bc63-b29ae5e0681c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="864f4d4cc55e00df174a567dcac6dc96" ns3:_="" ns4:_="">
     <xsd:import namespace="a5438d8a-e25f-4b06-a016-058b88377401"/>
@@ -1260,14 +1268,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a5438d8a-e25f-4b06-a016-058b88377401" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1278,6 +1278,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50B20762-B163-4326-8B6A-1AA0CE258EC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a5438d8a-e25f-4b06-a016-058b88377401"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ace11a39-4f1a-4f3d-bc63-b29ae5e0681c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{413CC362-E640-4F5E-B8DE-CD1495C471A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1296,23 +1313,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50B20762-B163-4326-8B6A-1AA0CE258EC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a5438d8a-e25f-4b06-a016-058b88377401"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ace11a39-4f1a-4f3d-bc63-b29ae5e0681c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1A42AD5-648E-4956-A6F8-DA3EEA3B2A3B}">
   <ds:schemaRefs>

--- a/IP_Vlan_Enterprise.xlsx
+++ b/IP_Vlan_Enterprise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\Enterprise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arvid\Documents\GitHub\Enterprise_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F14A97-8DD8-487E-842B-575BD354DF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B457CE45-D1F6-4251-963B-FA9F675D2AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="6216" xr2:uid="{DA9A1463-7F65-4E9E-B901-EAAB183ABE56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DA9A1463-7F65-4E9E-B901-EAAB183ABE56}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>Hoofdbranche</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>10.3.200.0/24</t>
+  </si>
+  <si>
+    <t>10.3.180.0/24</t>
   </si>
 </sst>
 </file>
@@ -238,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -254,9 +257,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +297,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -400,7 +403,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -542,7 +545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -550,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA6A49-74F3-4982-9AAB-7ABE15EB4179}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,6 +1062,20 @@
         <v>48</v>
       </c>
       <c r="E32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>280</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1078,14 +1095,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a5438d8a-e25f-4b06-a016-058b88377401" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1162626062FFC4EA201A1E377B53F87" ma:contentTypeVersion="7" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="2a3662e17ae22d0b90c8b1b600c1d3af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a5438d8a-e25f-4b06-a016-058b88377401" xmlns:ns4="ace11a39-4f1a-4f3d-bc63-b29ae5e0681c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="864f4d4cc55e00df174a567dcac6dc96" ns3:_="" ns4:_="">
     <xsd:import namespace="a5438d8a-e25f-4b06-a016-058b88377401"/>
@@ -1268,6 +1277,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a5438d8a-e25f-4b06-a016-058b88377401" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1278,23 +1295,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50B20762-B163-4326-8B6A-1AA0CE258EC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a5438d8a-e25f-4b06-a016-058b88377401"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ace11a39-4f1a-4f3d-bc63-b29ae5e0681c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{413CC362-E640-4F5E-B8DE-CD1495C471A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1313,6 +1313,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50B20762-B163-4326-8B6A-1AA0CE258EC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a5438d8a-e25f-4b06-a016-058b88377401"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ace11a39-4f1a-4f3d-bc63-b29ae5e0681c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1A42AD5-648E-4956-A6F8-DA3EEA3B2A3B}">
   <ds:schemaRefs>

--- a/IP_Vlan_Enterprise.xlsx
+++ b/IP_Vlan_Enterprise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F14A97-8DD8-487E-842B-575BD354DF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04855570-A612-4A68-BE7C-972166407054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="6216" xr2:uid="{DA9A1463-7F65-4E9E-B901-EAAB183ABE56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DA9A1463-7F65-4E9E-B901-EAAB183ABE56}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -161,21 +161,6 @@
     <t>10.2.170.0/24</t>
   </si>
   <si>
-    <t>10.2.30.0/24</t>
-  </si>
-  <si>
-    <t>10.2.20.0/24</t>
-  </si>
-  <si>
-    <t>10.2.40.0/24</t>
-  </si>
-  <si>
-    <t>10.2.50.0/24</t>
-  </si>
-  <si>
-    <t>10.2.60.0/24</t>
-  </si>
-  <si>
     <t>10.1.18.0/24</t>
   </si>
   <si>
@@ -192,6 +177,21 @@
   </si>
   <si>
     <t>10.3.200.0/24</t>
+  </si>
+  <si>
+    <t>10.2.120.0/24</t>
+  </si>
+  <si>
+    <t>10.2.130.0/24</t>
+  </si>
+  <si>
+    <t>10.2.140.0/24</t>
+  </si>
+  <si>
+    <t>10.2.150.0/24</t>
+  </si>
+  <si>
+    <t>10.2.160.0/24</t>
   </si>
 </sst>
 </file>
@@ -254,9 +254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +294,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -400,7 +400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -542,7 +542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -553,7 +553,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,7 +729,7 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
@@ -884,7 +884,7 @@
         <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
         <v>28</v>
@@ -918,7 +918,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
@@ -935,7 +935,7 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
         <v>28</v>
@@ -952,7 +952,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
         <v>28</v>
@@ -969,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
@@ -1005,7 +1005,7 @@
         <v>200</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
         <v>28</v>
@@ -1022,7 +1022,7 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
         <v>28</v>
@@ -1039,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E31" t="s">
         <v>28</v>
@@ -1056,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
         <v>28</v>
@@ -1078,14 +1078,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a5438d8a-e25f-4b06-a016-058b88377401" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1162626062FFC4EA201A1E377B53F87" ma:contentTypeVersion="7" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="2a3662e17ae22d0b90c8b1b600c1d3af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a5438d8a-e25f-4b06-a016-058b88377401" xmlns:ns4="ace11a39-4f1a-4f3d-bc63-b29ae5e0681c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="864f4d4cc55e00df174a567dcac6dc96" ns3:_="" ns4:_="">
     <xsd:import namespace="a5438d8a-e25f-4b06-a016-058b88377401"/>
@@ -1268,6 +1260,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a5438d8a-e25f-4b06-a016-058b88377401" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1278,23 +1278,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50B20762-B163-4326-8B6A-1AA0CE258EC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a5438d8a-e25f-4b06-a016-058b88377401"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ace11a39-4f1a-4f3d-bc63-b29ae5e0681c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{413CC362-E640-4F5E-B8DE-CD1495C471A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1313,6 +1296,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50B20762-B163-4326-8B6A-1AA0CE258EC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a5438d8a-e25f-4b06-a016-058b88377401"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ace11a39-4f1a-4f3d-bc63-b29ae5e0681c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1A42AD5-648E-4956-A6F8-DA3EEA3B2A3B}">
   <ds:schemaRefs>
